--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/69_Sinop_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/69_Sinop_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC778F53-8657-42D3-A5D3-4F98C81DADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D175D4-BDDB-4713-99BD-E8F347481F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06AC2CAE-EC60-42F1-B464-D96A3EBEB1B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C059A39-1A95-4744-9D60-D935565FAA95}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{FC3CB4C4-5678-4692-9954-048A85B0BCE4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{6BDC199C-5F31-4140-94D7-40C683556BC6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0048F99E-B472-4AF7-89E7-518981398E6D}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{E9C163D5-6C13-418B-B71E-D4A46A659A9A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{881E33C8-4EBE-4E00-9733-470F82EF3433}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0A9EAB6C-5E8E-4BAF-BC95-2A8E8DC62BF6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{8EBBC801-BF8D-4545-B773-CBA880473C02}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{FEEEC0AA-0C2D-4816-B9F1-FFE9D82D4E04}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001F3DBB-8A1B-4F85-825E-BC0E0A3276F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D5C77F-8540-4672-82F4-B84FB83A7E2A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2441,18 +2441,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5DEDC466-60E2-4097-B319-3E6545ACBFC5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E719EDCD-F587-4A66-B72A-E9A3148615E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81499ED8-7342-47AE-8D68-F6CE4B76D5B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E5352A46-B47D-4AE6-BA4F-0E282EE4C94C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B09DA8D-EF47-451D-A595-C1402E9B88C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D08279CF-AC3A-46EB-A3FC-ADE9173517AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A03AC64F-71F9-459F-9263-8707C16A1D9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F60C74EF-9643-4846-B495-4F475754E2E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60BED35A-5657-4717-AA70-3590A8F812CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4728B38E-5D19-41F4-82E3-A8EE3703FD2F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84A2251F-638A-479C-AAB0-D27C085E8F34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2676A6EA-44A4-48EF-AD40-24904AB6AFAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FFDEC103-B5E3-4450-9699-838104A77CF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{070464BB-F2E5-4F84-B0DB-C09DD35E8604}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3DF6C16C-8BD0-4EE6-AEB8-78D95EDCC3EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{71A518E1-7DB2-45EA-92F5-97EC1582137B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7033CC54-2607-4758-8620-FFE281CEBD60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE4A9D2E-5EAC-4D92-8203-2AE589975E40}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5D0D5CC9-3429-41BE-8643-784C3659700F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51FB04B3-CE2A-4A4B-BCED-CA5C325D0FE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B08E1956-4BB1-44B3-9CB9-93A6E2BFC307}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF7D175B-1691-4D66-A347-89145FD77664}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DB5B2211-74F7-4E88-9FAF-70893CF514A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFE359E6-4716-40F3-9009-548665194C0A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F328F0-B72A-432F-BE06-DBE46D0A1E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9D1F32-FA4E-472C-81DD-1C012968C407}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3642,18 +3642,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45FDE69B-66E1-4D84-8644-3960C7D80C20}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{670D8044-46DC-4D48-AEA3-A2B615C18FC5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DECB36D9-FE80-4D24-8D19-2E1D90EAD2F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C9284FD6-20DF-4ACD-8C70-DA1CAA490117}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AEF84A68-513A-4CBE-B14D-6E53D53D2977}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5467A678-933A-4BE4-810D-68AB601B867A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12000D22-F68E-4E29-9E0D-471AAADBAB44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC2830A6-09CE-456C-A45D-3E77E1347B7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{75D6DEFA-E0F5-4D38-B3F1-5F4E0BB6BCE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{16F3131D-367F-413A-84CF-7480D28BAFF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B44B12AE-CBD2-4196-9612-39D89AD4F2A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{93009113-7F50-47C2-9D00-D32FB1E6A30C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D8D3DFDF-F604-4F8D-BC9B-A77F0945FE69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9BC1D7A9-EEF2-440F-A7D8-1F711D0A7DC2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{069E981A-BA92-4CDB-8E8A-E237E6022AE7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6B6020F5-630A-4A6A-88CB-BF87AA59976D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A4A8B941-FCEF-4E38-BC16-86641950F77B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{53F5A118-57B0-406E-8722-67CD3C9A1E10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10E981DD-BF67-475A-8CBB-30EC87EE47DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DEE488DC-D23B-4F07-95F7-641A193AC5C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{215C12AF-AF35-4089-8DFD-B4FF4F38B8E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D17BA6D1-C4D6-4F78-827A-D2E3B3BD8240}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{228F9A71-9B5D-4CA2-9663-67E54A5638B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF11EBE5-75BC-4113-B4B7-3410B5C4A0EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3666,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDDCB0-A5E2-4B65-9CF4-7D977914F784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B2EE5C-0F49-49A3-9D29-E5BA4B6457E5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4835,18 +4835,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3BE8BB0-82FD-4874-BC16-4790D7BA2BCA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{14249E8A-73A4-4094-998E-F66B86C4F9E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AF78212F-1299-4FBB-987F-B6F366012F94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2B6487B6-E358-4DB0-89CB-EFD3CBB4DBA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8998AA2F-91C0-4274-A952-E3B31996CDDB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D41EC56-EDAE-4785-BE7B-CBB51DF30249}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52A4FACB-114B-4A15-8ED5-83679F143456}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{87F06635-13D7-418C-8053-CFC8C2FAF4E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6F2E2AF1-B95E-4B97-BB58-139093CC19E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9E58118C-6388-4FA8-B009-2A74E8095680}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D4066BE-9FED-4FC4-8155-10456927F93F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9D568B52-0768-4317-9591-DBED21521872}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0DC0C66-1445-4B2A-83C4-BC6E1F117DB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F5DFFB3-1424-41A7-A7FD-B82B45EEF5FE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4FFD832D-8086-4568-837E-DA6750C82B2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4918A4E5-C7CD-47A8-8500-BDCB4DDCA7A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{819670AC-1455-45E3-91F5-769F1462857E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3D6A826B-0172-4031-AA38-AE7DA55B9D60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F635D61A-1575-448C-B217-B710DFBBF50E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{137A5D92-AB36-4A54-8523-57F5DA70BCD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5069D1C-1105-4B15-B7F3-6B932AB11D62}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{47DCFFB7-AB62-401C-AC28-1CD01E07E12E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C34A2255-6ADB-450A-9B49-881D41CBA0E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9BDE89FF-690C-4EB0-91BE-7F5E8B9ABDB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4859,7 +4859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C007076-305A-4B04-A02E-6957C634BD02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BBB110-2C2E-4831-87E9-A5234DE97428}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6006,18 +6006,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E637A64-91AE-43BC-AE64-4600218B7638}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DDDE7F8C-C460-4B4F-BA86-F64CF5487B2F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2C5D9D79-0F83-48CD-A1B2-6089A84A59A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BDC4AC57-2975-433B-852C-3374C2B8A924}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF38229F-27E7-4C44-99CD-4117C7A32AC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A7E6BA0B-EEA6-4F33-9586-BE9E6DADFDC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{87871D55-469A-428E-8FB7-6FF219664B35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{76C23740-6976-42DC-AF58-D11B5F3051A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6042DB1A-F446-450D-A0E7-7773F48BA93A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D8F0DD8-C249-46BD-925D-9FC1ADDA8B97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{336BAE85-2DE8-47AD-9A25-A3E95EEC9044}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A975466B-1DC6-4979-8F7A-0B04A97816C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CCA8366E-B283-4837-9E41-0AD86F1D59A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E7262878-6565-49EC-9DAA-4CCECC903228}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9D0A0D9-8F19-470F-8FC6-A16A62DFE3FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B9034F43-9B20-4998-B130-5A02767E0C69}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{17CCCAF1-FCF5-406F-97AA-5998DDAAA24B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F6C3C7EB-18E5-4778-90CA-C38611388DCA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5CB95482-DDA7-4997-B3BE-8BA9E4372DF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D8961A8-3AF1-4998-B025-59EFBAA4F396}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B17F7B13-1838-4B6F-A676-9FBE8BF4D0E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1E861A60-6C7B-477D-8EB6-3797FFF4F88C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0DAFB705-213F-4EB4-9DF0-1E0697063A62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E87BFEA4-5673-4CC8-8CD0-F0D54FAFEAE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6030,7 +6030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2B43F8-9227-4736-8AFB-241E30AE5FA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A709656-F769-4AA1-83DA-E21D502327C1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7233,18 +7233,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{703B2CAB-8279-4507-BF9E-71A192FD8B84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4D74125C-D24F-4136-8AF2-B88332940B53}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{05E797D0-42F9-4AF9-B85C-5A002BC61925}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1CE7D64-54D7-410C-A0E5-4FBD8FEB7B1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{797FDEDE-5AC8-4FB7-A7A8-056983E5DF3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B8AB2D13-95E0-46BD-A6AF-7D3D282333FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C365A700-132B-4FB4-AB0D-09056F85F895}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ABC128A0-FE18-4B6B-9A6F-87CE2AC257C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{618F568E-C6E9-4C91-B29D-E32B0A2F4663}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9C685C2A-FF3D-4238-B3F7-9D215CA82A28}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4738969A-1152-4AD7-8AD4-CE51C94029AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D7CB97CF-C622-48BE-986B-E90AB20F0748}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FBAD21C0-3F8F-421B-976F-3DC85A67C091}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF7C1AE3-C58D-4583-95F1-D4B7D241CB68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AC1ECD16-D120-48F0-97C3-0D8691033CC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CF663370-C1DE-4662-8F71-BC9C0DDBF42B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{25CBBE26-04B7-42D3-B291-515E12EB1A92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E5B058C7-26EE-43DE-AF59-1D75B7587A99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{16E8CEBA-A168-47CA-B8E3-35D33ECBCBF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{50162706-BDC7-4656-8386-874AE856CB48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5299450B-4B87-44C6-8F70-F6EEAAFD272B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B2157A56-C869-474E-A4CF-E61A9A5378C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D05EFFA-4E4E-4C4D-AD1E-56F9097C1432}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{68921449-7611-48A6-9069-D7CE09196A56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7257,7 +7257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90F7C10-59A5-488E-8BE3-025AF1051EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F891B99E-A828-4A5A-86FD-50AA02234889}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8458,18 +8458,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B767BB2-34BA-4D64-ACA5-E8950EEB9C39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3BFE05CD-D16E-40E2-9055-26DC93FAE97A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA0D29EB-F6AC-44DB-9FD8-4BD99098EB72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{07771D76-541B-4710-A64C-B273BFE02679}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A2E4A324-7535-428B-A9E2-6F97088D35D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A303440-AB5A-4971-A9F8-44A4070D3465}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8654D645-48BB-4F3D-8330-CA2A244B664A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{296D6FC9-91B0-4656-95F9-32E1558FD317}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F803564-6198-40E8-8C3F-B459C0CE1CC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A40D4FD2-D152-47C1-B50A-F9CF8655213A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{40403AE2-6E59-49CB-AD59-C1EA53113D0F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E35D3F2-9438-4A6B-AAC9-FF3F6510B0E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{31B61628-F0CD-4981-8635-6D88E7F711A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B637791E-B5B4-4E7D-B19A-EC3DAA3CB424}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34E62545-AF59-49CA-A54D-4BBDBE0BCA63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{806F767F-7367-4D01-ADD7-28833A0DE9CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C316C924-6F51-4AF3-B74A-6596CB04DBB3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0E329D1-1099-45C2-839F-385A6D9616ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B0727027-5841-4D69-A7C6-DF8397F49B4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9A8EDD38-3A64-44B6-936C-E28A34C1ECDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FB7CDCAA-44F5-4013-A1D7-86659446F29E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2946ED8C-E314-4FC4-BC49-B142051679AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{37C8ABA8-AABB-4AED-B484-414C02AB69B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5B6DD1C-B2C1-491A-A632-CB4A79500356}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8482,7 +8482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21B7F0-867D-46C0-9148-28F94D180DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95791D03-12A4-4837-B85D-453417530742}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9679,18 +9679,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{54DA756C-6F99-47B1-B53B-EBB3DD756C59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10A9EC32-F345-4F2C-9A45-AE255F0C0FE8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7978411E-DA49-4657-AB51-63AC27A355E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{184FEB64-E43A-461C-AA86-89218376D322}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2032A577-FD40-4D7B-B3AB-471155F557B9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{49D488B7-6547-4B44-89C3-DF8CAA925EAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34A3D649-606A-4573-8B53-C1414EF92180}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3FC99B53-3AF4-4470-A80A-C2E2BD606C5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E2546C57-29BA-490D-84E1-4EB1375AEDF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC1A2310-115C-4FC4-A956-843C207DE5D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9261236E-641F-44B8-B9ED-1BB91BD37A45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC668E42-ADF3-403C-AAAD-451370FA518E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{23E572D6-333F-4B3A-AA96-D020D549B195}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B2D51C29-3DDD-4FBC-9F7A-96E2FE1033F5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6B0E2138-BC80-4872-8672-4F0319F24107}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4ED9B831-D695-4FCE-9206-C7777A447247}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7C03AE15-199F-4293-8416-EADFE880E68B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{69309CFC-EE87-43A0-87FF-9E01538D8013}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{184D3571-823B-43B2-9BDF-6804BFFE1F2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15079C53-5909-4787-9CD1-EDAE9D21E0B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0455FE7D-57E0-4DB5-981A-17019C8AD4D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0D37E695-94E4-4287-B7E4-F3EFD6928344}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E677B64-4D3E-45CB-A487-2D067F8F7AA4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65619E81-E7AF-4959-A03E-496C5ED150DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9703,7 +9703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ACB1B0-0778-4536-84E7-E09F36C42593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4782681D-E6DA-48A0-AD50-2CB6D41A9779}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10894,18 +10894,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DABD4411-12B7-43BA-981C-5D56AE3087D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1ADF2C3E-540A-40B6-863A-992B936DD161}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57E91176-9BE0-4E04-A708-D547330E9AD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{84C76085-2062-4B5D-A8A2-F8AA0D17CCEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{70C340CF-35D3-4C69-BCA0-D8E2F21329E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A20B98D-649A-4B07-8340-BD68BE8C348D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9254A7C8-7BAD-4338-85E2-9BE3312F6D2F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{232F655D-34F5-4146-8FB6-469A711BA485}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B57CB8EB-5585-494F-B52B-D16D441F8E8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DA310633-CCCA-4AD9-A989-CCBAF895C21C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6654C4CF-4D7B-48BE-B222-81A494BFDD1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0F445428-D424-4963-8651-39D3E235346E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{94A14DD3-6E22-4FA9-80C3-D9EC160FCD2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D313DC46-A2D3-43C3-8A67-49751A8FC38C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F543C0B5-7DF1-48AA-9C68-E211107E808B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{750DE3AA-4049-4B94-A72E-D20411BA4E8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93020B34-0787-41E0-A11D-11F65A8A615F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6A37B465-30D1-4257-908F-329490708A6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{503148D8-06D6-47C7-A661-805CE9AF778A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0864A0B-6920-4108-AF7E-4C26341E9A9C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{291767BF-568E-4C1E-A0D4-F6BE88CF63B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9B4283A0-07B3-458B-BE21-F0A414446812}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61687EBD-FB77-481E-9919-DCC70EC4EB6B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7DAB82E6-F289-4423-8C54-752E7089F40A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10918,7 +10918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5057D5-7A93-4BF4-BF81-8025DE16E1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F521B0-774C-4F07-88D4-CDB7674CC1A1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12109,18 +12109,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{35E2ADC2-8FE2-4F23-9ACB-7A601C3898E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06565D5C-21A3-4FCE-8D5F-3C1CD2BFCC10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EE575231-DBF2-4EF6-85B3-DB082C8C435C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{97EF8453-7A1F-4AAF-AC3B-5A84DEFF5FFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F6A36D30-AFFE-403B-8112-F46471C8CDAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7786542F-B748-4BD0-9662-4221CD0D9328}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D262D858-2F32-41B2-9D0C-B44F9FB90505}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E4C9872-2F62-4717-9ADA-44BD9BCF48EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DD7EA2C7-9093-4DF2-BF93-76A238E8CEBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8C3330AF-7DBD-49E5-938E-076AE757C7C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E67075F-4A06-465D-AAFF-6390F250D47F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1876FA5F-FDD0-495B-84EB-4AD696175357}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B6F65741-98EF-4164-AF99-7FA355D159FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A25D2A63-B06D-40F0-8EEE-93017737C156}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1ADD2E8D-B833-411D-8F50-6C7806AE76C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2A761DF0-FC08-4B49-A577-2CDCF237E7B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{482D8F05-2C2D-4627-B446-04246CA9CD92}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{77100BD0-6E6E-4C0C-A92E-D66824A9C152}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6851DAF1-FE54-4CC0-B6B2-C8C6681F2F32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B05C683E-0AA9-4377-99FF-549CEB84E59F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{44E416DF-16C8-4D95-A83C-095925417BC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D849AF6F-DD91-4367-99F3-4C1DAB0E6106}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DB18F19E-917B-40DA-BBA0-F9C10697FD14}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0AEDF276-F0C0-43CF-9446-78435DDE8311}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12133,7 +12133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F54F008-910D-4CB9-9C32-59A6D88B4D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE1F3-1FC7-4FE3-895E-60D1752630C2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13320,18 +13320,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{532F68F2-2E33-4AC9-B1A6-F725D5EC8A5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3B2A4D5A-4841-4B70-B207-D9B2691B0552}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3A0918F0-FE70-42EE-93DD-92DDEE4261F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EC03DEA7-F7FF-4B8D-8ADC-2DA07BE63F0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{45FAAE91-F6B2-4ABC-B15B-AD013E47602B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17E14EA0-7230-49F5-82A4-5491ADA7C94A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A8AAAEB8-639B-49F7-8EC3-577BA633BB9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{61F686ED-96BC-48D5-B756-966DBF20E29D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76B037F0-FA8A-4D36-994E-09BE4DBABB53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E66AE1AC-2533-4147-B1A3-A1BA7FC51BA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{21778F51-D91E-4570-B951-F77CE7955CDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C61FFCC0-5A48-47B5-A938-D7537B7A8C34}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{85D20DFB-7A45-4558-BE66-E09005A46AA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58205DF4-E704-49A5-B3A9-F1B7BFD3A299}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7901DFDB-CD0F-4150-81FF-01F8F36683B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A53592E2-F979-41A2-8B7A-590C936A1188}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9DEECF01-D4E6-4D61-8629-3194E1CF3CD7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15B9F484-FE29-4D1B-B293-D2013A3EE2A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0F14BF3E-0152-4E16-A0FE-B3E62E44A887}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{96E2C768-68D2-4E9C-AE49-B3B860276322}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BAEFCD0C-B2A1-4EF9-B1F9-24FB1E0EBE07}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0BC28408-33FF-4E92-8420-6E84C494AE99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4CF316BA-A2AA-46C1-B4CA-36800237FA06}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{29FB4BBD-3A89-4B2C-8D0F-C52110FEE202}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13344,7 +13344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9446BD38-BBF3-440D-9436-BE22462DC4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD12E0BA-18E2-43E0-B4AC-18615F12621E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14531,18 +14531,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57376F2C-DFF8-4F76-94FC-404F17FD467F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A198E559-07AE-4881-8A74-634919F1328F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AB2AAB69-91D8-403F-900F-62534693C7E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90D82893-AF97-4B87-BD9F-AB96567C1EC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8ECEE2F0-8FBB-4A37-BCB8-2ABFA810F044}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF527CBB-B005-4932-A6F4-AF952057087E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0FD9D661-99B4-4C99-93DF-64EC35A67A35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA68F04B-4682-4080-8B7C-ECDFEE32BB11}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5AAE0CBA-58FE-4EE4-934F-366E688F96FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{785753E4-082F-439F-B0EF-7B7B2D053059}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{872818AD-8E06-4A90-BAFD-D56583F323DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D460B11A-D0CB-4DF0-967C-DB486ECBE1CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6246E087-986F-45D8-8154-5F01DEF63F3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{33A40170-9EE7-4C7F-B60D-27FFD4B5E1CF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6F9BB4A5-BB5C-4EB1-BD71-6B2D6C5B6E24}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CE9C769E-2DCA-4B7C-89E2-CC811A9DE6D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6DA1AE6C-8B03-46CC-A125-D1E051A101A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FFDE0159-CFC0-4CC3-96B9-0308F8321283}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3982753E-3AA6-4A0E-8240-83A7C4B0EEE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5937753B-4CF2-4556-A5D3-54AD6EC7DF26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1CD2157D-9E14-4BE1-99B7-D8ACBE3964E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2B3F1A95-2341-49BA-BAA4-19F52360BAAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F712E38-03D8-47B9-A85D-9872818637E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A5458A70-29BC-4648-96D5-86BEC00EA628}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14555,7 +14555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8424BAC1-E1A0-45A0-A872-D9BCE59FA675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA3BC29-5834-4700-B35B-3F80F22BF7AD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15738,18 +15738,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4A89D30E-50DC-484F-ACCF-E652D40B4B31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C59D8AEC-D9E0-49E3-B1A4-CDA0E9B81E13}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DF30367E-7989-4948-9284-9F34306E9D75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B042E622-914B-4333-B10A-E3E6BB09C696}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDD7D547-CE44-48A5-BF19-169B04B0D5C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C34E93CB-5A66-4AE0-9633-E6CFE6B286F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10820246-1765-4E8C-AFD8-C74A4596648D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6B8D6A56-183B-4BF1-AEE9-E3EDAADAA81D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D0FA315E-549F-4DEB-8F04-51DF9ECFA463}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EA3007D0-3B8F-4ECD-8ED0-14C674F07332}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{47269EE8-A75A-4680-B1EC-33C93C414851}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{722093B6-4CB3-4EAF-9BAF-952885DE46D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9796B4C4-DAF1-439F-B43A-EFCB437CA388}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{721BBE01-11E0-4CD2-B9EA-F231DABF8DFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CA0EA00-D747-4AA9-B928-1F08724814A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B4D2864A-277E-448B-A5CE-CF76346D10B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9E83ADB-D092-4A45-950A-78F1F2858A45}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E50FD716-318D-4C8F-AE2A-CD60D36E9B6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DD2764B3-8148-4BF2-B5FA-EDE13515E72A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1F63D773-573A-4C7E-8564-EFFEBD06C5B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{010C255B-9BBF-41FF-982B-7A3A4A0BBB2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{47290B7A-BBCE-4938-8619-C230546B86A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{20E5B387-C661-48EB-91FC-2142D1DAAF79}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C55E53D-4212-413E-844A-378FB976214F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
